--- a/test/s2t/s2t_26_names_fullname_etljob.xlsx
+++ b/test/s2t/s2t_26_names_fullname_etljob.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77C869A2-D89A-431F-9AE1-B7031AE92044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040BE93B-A4CE-46CB-B93B-2EA80CA40E01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10800" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="126">
   <si>
     <t>mappingname</t>
   </si>
@@ -337,9 +337,6 @@
     <t>HEALTHCARE_COVERAGE</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>tgttabletype</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>derived</t>
   </si>
   <si>
-    <t>CONCAT(COALESCE(PREFIX,''),' ',COALESCE(FIRST,''),' ',COALESCE(LAST,''),' ',COALESCE(SUFFIX,''))</t>
-  </si>
-  <si>
     <t>patientswithnamessplit</t>
   </si>
   <si>
@@ -419,6 +413,9 @@
   </si>
   <si>
     <t>sys.orc_patients_stg</t>
+  </si>
+  <si>
+    <t>NVL(PREFIX,'')||' '||NVL(FIRST,'')||' '||NVL(LAST,'')||' '||NVL(SUFFIX,'')</t>
   </si>
 </sst>
 </file>
@@ -868,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E28631E-9A8B-4B40-8EC8-AD01C3B31856}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,7 +920,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -931,7 +928,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,7 +1062,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1073,7 +1070,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1081,7 +1078,7 @@
         <v>34</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1105,7 +1102,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1152,9 +1149,7 @@
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
@@ -1233,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F175362-E919-4E0B-BAAB-8F57DA09A5DB}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1725,13 +1720,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="C27" s="5" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1745,10 +1740,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>73</v>
@@ -1762,10 +1757,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>75</v>
@@ -1779,10 +1774,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>76</v>
@@ -1796,10 +1791,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>77</v>
@@ -1813,10 +1808,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>78</v>
@@ -1830,10 +1825,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>79</v>
@@ -1847,13 +1842,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="C34" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D34" s="5">
         <v>8</v>
@@ -1864,10 +1859,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>81</v>
@@ -1881,10 +1876,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>82</v>
@@ -1898,10 +1893,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>83</v>
@@ -1915,10 +1910,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>84</v>
@@ -1932,10 +1927,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>85</v>
@@ -1949,10 +1944,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>86</v>
@@ -1966,10 +1961,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>87</v>
@@ -1983,10 +1978,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>88</v>
@@ -2000,10 +1995,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>89</v>
@@ -2017,10 +2012,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>90</v>
@@ -2034,10 +2029,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>91</v>
@@ -2051,10 +2046,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>92</v>
@@ -2068,10 +2063,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>93</v>
@@ -2085,10 +2080,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>94</v>
@@ -2102,10 +2097,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>96</v>
@@ -2119,10 +2114,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>97</v>
@@ -2136,10 +2131,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>98</v>
@@ -2153,13 +2148,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D52" s="5">
         <v>26</v>
@@ -2182,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1B550D-10B7-4DED-8B4E-101137D895D9}">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,63 +2203,63 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="N1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>118</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>68</v>
@@ -2276,7 +2271,7 @@
         <v>70</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -2290,10 +2285,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>73</v>
@@ -2308,7 +2303,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -2322,10 +2317,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>75</v>
@@ -2340,7 +2335,7 @@
         <v>75</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -2354,10 +2349,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>76</v>
@@ -2372,7 +2367,7 @@
         <v>76</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -2386,10 +2381,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>77</v>
@@ -2404,7 +2399,7 @@
         <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2418,10 +2413,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>78</v>
@@ -2436,7 +2431,7 @@
         <v>78</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -2450,10 +2445,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>79</v>
@@ -2468,7 +2463,7 @@
         <v>79</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -2482,10 +2477,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>80</v>
@@ -2500,7 +2495,7 @@
         <v>80</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -2514,10 +2509,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>81</v>
@@ -2532,7 +2527,7 @@
         <v>81</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -2546,10 +2541,10 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>82</v>
@@ -2564,7 +2559,7 @@
         <v>82</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -2578,10 +2573,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>83</v>
@@ -2596,7 +2591,7 @@
         <v>83</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2610,10 +2605,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>84</v>
@@ -2628,7 +2623,7 @@
         <v>84</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2642,10 +2637,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>85</v>
@@ -2660,7 +2655,7 @@
         <v>85</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -2674,10 +2669,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>86</v>
@@ -2692,7 +2687,7 @@
         <v>86</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -2706,10 +2701,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>87</v>
@@ -2724,7 +2719,7 @@
         <v>87</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
@@ -2738,10 +2733,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>88</v>
@@ -2756,7 +2751,7 @@
         <v>88</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2770,10 +2765,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>89</v>
@@ -2788,7 +2783,7 @@
         <v>89</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
@@ -2802,10 +2797,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>90</v>
@@ -2820,7 +2815,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
@@ -2834,10 +2829,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>91</v>
@@ -2852,7 +2847,7 @@
         <v>91</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
@@ -2866,10 +2861,10 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>92</v>
@@ -2884,7 +2879,7 @@
         <v>92</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -2898,10 +2893,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>93</v>
@@ -2916,7 +2911,7 @@
         <v>93</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
@@ -2930,10 +2925,10 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>94</v>
@@ -2948,7 +2943,7 @@
         <v>94</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -2962,10 +2957,10 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>96</v>
@@ -2980,7 +2975,7 @@
         <v>96</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -2994,10 +2989,10 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>97</v>
@@ -3012,7 +3007,7 @@
         <v>97</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -3026,10 +3021,10 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>98</v>
@@ -3044,7 +3039,7 @@
         <v>98</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -3058,23 +3053,23 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>119</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H27" s="5"/>
       <c r="I27" s="5" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
